--- a/modified_file.xlsx
+++ b/modified_file.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Hourly_Rate+T:T</t>
+          <t>Hourly_Rate</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
@@ -616,37 +616,37 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Program_State</t>
+          <t>Regions_Served</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Regions_Served</t>
+          <t>NH_Program_Cost</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>wpcf-wpcf-prgm_nh_regions</t>
+          <t>NH_Program_Cost_Describe</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>wpcf-prgm_nh_program_cost</t>
+          <t>NH_Scholarships_Available</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>wpcf-prgm_program_cost_describe</t>
+          <t>NH_Youth_Led</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>wpcf-prgm_nh_scholarships_available</t>
+          <t>Conducted_Outdoors.1</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>wpcf-prgm_nh_youth_led</t>
+          <t>Program_Seasons</t>
         </is>
       </c>
     </row>
@@ -663,11 +663,7 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Events/Symposiums, Data/Research, Professional Certification</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -675,7 +671,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Social Studies NCSS, Waldorf / Montessori</t>
+          <t>Social Studies NCSS,  Waldorf / Montessori</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -725,17 +721,17 @@
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>Cost Description NH Test</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
@@ -743,14 +739,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Cost Description NH Test</t>
-        </is>
-      </c>
+      <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Not at all</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr"/>
@@ -774,7 +766,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Events/Symposiums, Data/Research, Professional Certification, Other</t>
+          <t>Events/Symposiums,   Data/Research,   Professional Certification,   Other</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -806,7 +798,7 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Senior Citizens, Adults</t>
+          <t>Senior Citizens,   Adults</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -862,19 +854,15 @@
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
+          <t>Carroll County,  Grafton County</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>Carroll County, Grafton County</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Carroll County, Grafton County</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -883,7 +871,7 @@
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Not at all</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr"/>
@@ -919,7 +907,7 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>On K-12 school campus, Other Location, Virtual</t>
+          <t>On K-12 school campus,  Other Location,  Virtual</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -943,7 +931,7 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth, Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators, General Public/Family, Senior Citizens, Adults</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth,  Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators,  General Public/Family,  Senior Citizens,   Adults</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1015,27 +1003,27 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
           <t>No</t>
         </is>
       </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1051,18 +1039,18 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Each year educators from across New Hampshire and nearby states gather to share best practices,  ideas,  and resources in the field of environmental education. Attendees participate in workshops and are inspired by a keynote speaker. It is an opportunity to network with others interested in outdoor learning,  nature education,  and environmental literacy.</t>
+          <t>Each year educators from across New Hampshire and nearby states gather to share best practices,  ideas,  and resources in the field of environmental education. Attendees participate in workshops and are inspired by a keynote speaker. It is an opportunity to network with others interested in Outdoor Learning,   nature education,  and environmental literacy.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Curriculum &amp; instructional materials, Professional development/consulting for teachers, Supporting networks (online/in-person)</t>
+          <t>Curriculum &amp; instructional materials,  Professional development/consulting for teachers,  Supporting networks (online/in-person)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Air Quality, Climate Change, Conservation (Wildlife/Habitat), Energy, Environmental Justice, Food Systems/Nutrition, Green Building, Marine &amp; Coastal, Outdoor Learning, STEM, Transportation, Waste, Water, Workforce Development</t>
+          <t>Air Quality,  Climate Change,  Conservation (Wildlife/Habitat),  Energy,  Environmental Justice,  Food Systems/Nutrition,  Green Building, Marine &amp; Coastal,  Outdoor Learning,  STEM,  Transportation,  Waste,  Water,  Workforce Development</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1092,7 +1080,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators</t>
+          <t>Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1160,17 +1148,17 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>Varies year to year. In 2024 NHEE members paid $60 and Not Yet Members paid $90</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
@@ -1178,17 +1166,17 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Varies year to year. In 2024 NHEE members paid $60 and Not Yet Members paid $90</t>
-        </is>
-      </c>
+      <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr"/>
+          <t>Less than 50%</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1249,7 +1237,7 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Teachers/Administrators, Informal Educators</t>
+          <t>Teachers/Administrators,  Informal Educators</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1313,19 +1301,15 @@
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
           <t>No</t>
@@ -1334,10 +1318,14 @@
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+          <t>Not at all</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1364,7 +1352,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Conservation (Wildlife/Habitat), Outdoor Learning</t>
+          <t>Conservation (Wildlife/Habitat),  Outdoor Learning</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1398,7 +1386,7 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1460,21 +1448,25 @@
       </c>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>This program is completely conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1525,11 +1517,7 @@
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
@@ -1556,13 +1544,13 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Curriculum &amp; instructional materials, Direct teaching, Field trips, Grant funding, Internships, Materials &amp; supplies, Professional development/consulting for administrators, Professional development/consulting for teachers, Supporting networks (online/in-person), Data/Research</t>
+          <t>Curriculum &amp; instructional materials,  Direct teaching,  Field trips,  Grant funding,  Internships,  IMaterials &amp; supplies,  Professional development/consulting for administrators,  Professional development/consulting for teachers,  Supporting networks (online/in-person),  Data/Research</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Conservation (Wildlife/Habitat), Outdoor Learning, STEM, Other</t>
+          <t>Conservation (Wildlife/Habitat),  Outdoor Learning,  STEM,  Other</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1572,13 +1560,13 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>On K-12 school campus, Other Location</t>
+          <t>On K-12 school campus,  Other Location</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Next Generation Science Standards (NGSS), State Standards (Write in Other), Other</t>
+          <t>Next Generation Science Standards (NGSS),  State Standards (Write in Other),  Other</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1600,7 +1588,7 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, Teachers/Administrators, General Public/Family</t>
+          <t>Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  Teachers/Administrators,  General Public/Family</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1670,29 +1658,33 @@
       </c>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>The program is offered for free to partner schools to begin,  with a plan for them to adopt all or most of the program into their own budget in the future.</t>
+        </is>
+      </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>The program is offered for free to partner schools to begin,  with a plan for them to adopt all or most of the program into their own budget in the future.</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr"/>
+          <t>This program is completely conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1713,13 +1705,13 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Classroom volunteers/presenters, Direct teaching, Field trips</t>
+          <t>Classroom volunteers/presenters,  Direct teaching,  Field trips</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Conservation (Wildlife/Habitat), Other</t>
+          <t>Conservation (Wildlife/Habitat),  Other</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1729,13 +1721,13 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>On K-12 school campus, Other Location, Virtual</t>
+          <t>On K-12 school campus,  Other Location,  Virtual</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Next Generation Science Standards (NGSS), State Standards (Write in Other)</t>
+          <t>Next Generation Science Standards (NGSS),  State Standards (Write in Other)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1753,7 +1745,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1829,35 +1821,35 @@
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>Indoor Program/ 1 Hour: $8.00 per student (May-Oct includes live animal exhibit trail admission),  $5.00 per student (Nov-April); Outdoor Program/ 1.5 Hour $11.00 per student (May-Oct includes live animal exhibit trail admission),  $7.00 per student (Nov-April); Trail Only $7.00 per student; Virtual $150/program ($25 discount per program when scheduling two or more programs for the same school); Lake Education Program $225 per boat (max 12 students,  2 adults per boat); Chaperones - 1 adult free for every five students,  additional adults pay discounted student rate</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Indoor Program/ 1 Hour: $8.00 per student (May-Oct includes live animal exhibit trail admission),  $5.00 per student (Nov-April); Outdoor Program/ 1.5 Hour $11.00 per student (May-Oct includes live animal exhibit trail admission),  $7.00 per student (Nov-April); Trail Only $7.00 per student; Virtual $150/program ($25 discount per program when scheduling two or more programs for the same school); Lake Education Program $225 per boat (max 12 students,  2 adults per boat); Chaperones - 1 adult free for every five students,  additional adults pay discounted student rate</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1914,7 +1906,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden</t>
+          <t>Pre-K/Early Childhood,  Kindergarden</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1980,29 +1972,33 @@
       </c>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Annual Tuition</t>
+        </is>
+      </c>
       <c r="AN11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Annual Tuition</t>
-        </is>
-      </c>
+      <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr"/>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2053,11 +2049,7 @@
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
+      <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
@@ -2084,13 +2076,13 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Grant funding, Materials &amp; supplies, Professional development/consulting for teachers, Supporting networks (online/in-person)</t>
+          <t>Grant funding,  IMaterials &amp; supplies,  Professional development/consulting for teachers,  Supporting networks (online/in-person)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climate Change, STEM</t>
+          <t>Climate Change,  STEM</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -2120,7 +2112,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Teachers/Administrators, Informal Educators</t>
+          <t>Teachers/Administrators,  Informal Educators</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2182,25 +2174,29 @@
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr">
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>This is an open group intended for local educators but open to all with no limit on size. Members are compensated $50 for each 1.5 hour quarterly meeting they attend.</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>Not at all</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2221,19 +2217,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Classroom volunteers/presenters, Curriculum &amp; instructional materials, Direct teaching, Professional development/consulting for teachers</t>
+          <t>Classroom volunteers/presenters,  Curriculum &amp; instructional materials,  Direct teaching,  Professional development/consulting for teachers</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Air Quality, Climate Change, Conservation (Wildlife/Habitat), Food Systems/Nutrition, Outdoor Learning, STEM, Water</t>
+          <t>Air Quality,  Climate Change,  Conservation (Wildlife/Habitat),  Food Systems/Nutrition,  Outdoor Learning,  STEM,  Water</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>On K-12 school campus, Other Location</t>
+          <t>On K-12 school campus,  Other Location</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2257,7 +2253,7 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth, General Public/Family</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth,  General Public/Family</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2331,29 +2327,33 @@
       </c>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>There are no fees for school programs unless they borrow our stream table (river model),  then there is a $25 flat fee for transportation.</t>
+        </is>
+      </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>There are no fees for school programs unless they borrow our stream table (river model),  then there is a $25 flat fee for transportation.</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ14" t="inlineStr"/>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2374,13 +2374,13 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Direct teaching, Field trips, Materials &amp; supplies</t>
+          <t>Direct teaching,  Field trips,  Materials &amp; supplies</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Conservation (Wildlife/Habitat), Outdoor Learning, STEM, Water</t>
+          <t>Conservation (Wildlife/Habitat),  Outdoor Learning,  STEM,  Water</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>During school day, Summer, Weekends</t>
+          <t>During school day, Summer,   Weekends</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -2410,7 +2410,7 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth, Teachers/Administrators, Informal Educators, General Public/Family, Adults</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth,  Teachers/Administrators,  Informal Educators,  General Public/Family,  Adults</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2484,29 +2484,33 @@
       </c>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>We do not charge and offer funding for transportation.</t>
+        </is>
+      </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>We do not charge and offer funding for transportation.</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr"/>
+          <t>This program is completely conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2557,11 +2561,7 @@
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
+      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
@@ -2588,19 +2588,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Curriculum &amp; instructional materials, Direct teaching, Field trips, Grant funding, Materials &amp; supplies, Professional development/consulting for administrators, Professional development/consulting for teachers, Supporting networks (online/in-person), Data/Research, Professional Certification</t>
+          <t>Curriculum &amp; instructional materials,  Direct teaching,  Field trips,  Grant funding,  IMaterials &amp; supplies,  Professional development/consulting for administrators,  Professional development/consulting for teachers,  Supporting networks (online/in-person),  Data/Research, Professional Certification</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Food Systems/Nutrition, Outdoor Learning, STEM, Water</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Food Systems/Nutrition,  Outdoor Learning,  STEM,  Water</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Other Location, Virtual</t>
+          <t>Other Location,  Virtual</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2624,7 +2624,7 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators, Adults</t>
+          <t>Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators,  Adults</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -2690,29 +2690,33 @@
       </c>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>It depends on the program. Most are free through grant funding. Many are reduced due to grant funding. It ranges between $15 and $75 registration fees for the ones that have a cost.</t>
+        </is>
+      </c>
       <c r="AN17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>It depends on the program. Most are free through grant funding. Many are reduced due to grant funding. It ranges between $15 and $75 registration fees for the ones that have a cost.</t>
-        </is>
-      </c>
+      <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr"/>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2733,13 +2737,13 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Field trips, Events/Symposiums</t>
+          <t>Field trips,  Events/Symposiums</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Water</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Water</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2765,7 +2769,7 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>General Public/Family, Senior Citizens, Adults</t>
+          <t>General Public/Family, Senior Citizens,   Adults</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -2831,21 +2835,25 @@
       </c>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2866,13 +2874,13 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Direct teaching, Materials &amp; supplies, Events/Symposiums</t>
+          <t>Direct teaching,  IMaterials &amp; supplies,  Events/Symposiums</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Outdoor Learning, Water</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Outdoor Learning,  Water</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2964,21 +2972,25 @@
       </c>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>This program is completely conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2999,19 +3011,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Classroom volunteers/presenters, Curriculum &amp; instructional materials, Direct teaching, Materials &amp; supplies, Professional development/consulting for teachers</t>
+          <t>Classroom volunteers/presenters,  Curriculum &amp; instructional materials,  Direct teaching,  IMaterials &amp; supplies,  Professional development/consulting for teachers</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Outdoor Learning, STEM, Water</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Outdoor Learning,  STEM,  Water</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>On K-12 school campus, Other Location</t>
+          <t>On K-12 school campus,  Other Location</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -3035,7 +3047,7 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -3109,21 +3121,25 @@
       </c>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3146,31 +3162,31 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Curriculum &amp; instructional materials, Professional development/consulting for administrators, Professional development/consulting for teachers</t>
+          <t>Curriculum &amp; instructional materials,  Professional development/consulting for administrators,  Professional development/consulting for teachers</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Outdoor Learning, STEM, Water</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Outdoor Learning,  STEM,  Water</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>On K-12 school campus, Other Location</t>
+          <t>On K-12 school campus,  Other Location</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Next Generation Science Standards (NGSS), Head Start, National Association for the Education of Young Children (NAEYC)</t>
+          <t>Next Generation Science Standards (NGSS),  Head Start,  National Association for the Education of Young Children (NAEYC)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>During school day, After school, Evenings, Summer, Weekends</t>
+          <t>During school day, After school, Evenings, Summer,   Weekends</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -3182,7 +3198,7 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators, General Public/Family, Adults</t>
+          <t>Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators,  General Public/Family,  Adults</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3246,31 +3262,31 @@
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
           <t>Costs vary depending on workshop</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>Less than 50%</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3291,13 +3307,13 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Classroom volunteers/presenters, Curriculum &amp; instructional materials, Materials &amp; supplies, Professional development/consulting for teachers</t>
+          <t>Classroom volunteers/presenters,  Curriculum &amp; instructional materials,  IMaterials &amp; supplies,  Professional development/consulting for teachers</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>STEM, Water, Other</t>
+          <t>STEM,  Water,  Other</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3335,7 +3351,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -3401,21 +3417,25 @@
       </c>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3443,13 +3463,13 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Direct teaching, Field trips, Internships</t>
+          <t>Direct teaching,  Field trips,  Internships</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Outdoor Learning, STEM, Water</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Outdoor Learning,  STEM,  Water</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3479,7 +3499,7 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators, General Public/Family</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators,  General Public/Family</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -3549,12 +3569,12 @@
       </c>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr">
         <is>
@@ -3564,10 +3584,14 @@
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ23" t="inlineStr"/>
+          <t>This program is completely conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Winter</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3618,11 +3642,7 @@
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
+      <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
@@ -3650,13 +3670,13 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Curriculum &amp; instructional materials, Professional development/consulting for teachers</t>
+          <t>Curriculum &amp; instructional materials,  Professional development/consulting for teachers</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climate Change, Environmental Justice, Other</t>
+          <t>Climate Change,  Environmental Justice,  Other</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3678,7 +3698,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Evenings, Summer, Weekends</t>
+          <t>Evenings, Summer,   Weekends</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -3690,7 +3710,7 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators, Adults</t>
+          <t>Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators,  Adults</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -3756,29 +3776,33 @@
       </c>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>The cost is $99 and financial assistance is available for those who need it.</t>
+        </is>
+      </c>
       <c r="AN25" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>The cost is $99 and financial assistance is available for those who need it.</t>
-        </is>
-      </c>
+      <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ25" t="inlineStr"/>
+          <t>Not at all</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3805,7 +3829,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), STEM</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  STEM</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3823,7 +3847,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>During school day, After school, Evenings, Summer, Weekends</t>
+          <t>During school day, After school, Evenings, Summer,   Weekends</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -3903,35 +3927,35 @@
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>Flexible fees depending on budget/need: "fully funded" program is $300/base fee (1hr public program + all cleanup/setup) + $100/hr for additional hours + travel at $0.56/mile for programs &gt;20miles travel</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Flexible fees depending on budget/need: "fully funded" program is $300/base fee (1hr public program + all cleanup/setup) + $100/hr for additional hours + travel at $0.56/mile for programs &gt;20miles travel</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="AQ26" t="inlineStr"/>
+          <t>Less than 50%</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3952,13 +3976,13 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Direct teaching, Materials &amp; supplies, Professional development/consulting for teachers, Events/Symposiums</t>
+          <t>Direct teaching,  IMaterials &amp; supplies,  Professional development/consulting for teachers,  Events/Symposiums</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), STEM</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  STEM</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3976,7 +4000,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>During school day, After school, Evenings, Summer, Weekends</t>
+          <t>During school day, After school, Evenings, Summer,   Weekends</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -4056,35 +4080,35 @@
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
+          <t>$1000-2000/day + overnight lodging for staff + travel at $0.56/mile for programs &gt;20mile travel</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>$1000-2000/day + overnight lodging for staff + travel at $0.56/mile for programs &gt;20mile travel</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="AQ27" t="inlineStr"/>
+          <t>Less than 50%</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4105,13 +4129,13 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Classroom volunteers/presenters, Curriculum &amp; instructional materials, Direct teaching</t>
+          <t>Classroom volunteers/presenters,  Curriculum &amp; instructional materials,  Direct teaching</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Outdoor Learning, STEM</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Outdoor Learning,  STEM</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -4125,7 +4149,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>During school day, After school, Evenings, Summer, Weekends</t>
+          <t>During school day, After school, Evenings, Summer,   Weekends</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -4137,7 +4161,7 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>General Public/Family, Senior Citizens, Adults</t>
+          <t>General Public/Family, Senior Citizens,   Adults</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -4205,23 +4229,23 @@
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4242,19 +4266,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Classroom volunteers/presenters, Curriculum &amp; instructional materials, Direct teaching, Field trips, Grant funding, Internships, Materials &amp; supplies, Professional development/consulting for teachers, Supporting networks (online/in-person)</t>
+          <t>Classroom volunteers/presenters,  Curriculum &amp; instructional materials,  Direct teaching,  Field trips,  Grant funding,  Internships,  IMaterials &amp; supplies,  Professional development/consulting for teachers,  Supporting networks (online/in-person)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Green Building, Outdoor Learning, STEM, Water</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Green Building, Outdoor Learning,  STEM,  Water</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>On K-12 school campus, Other Location, Virtual</t>
+          <t>On K-12 school campus,  Other Location,  Virtual</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -4278,7 +4302,7 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth, Teachers/Administrators, Informal Educators</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth,  Teachers/Administrators,  Informal Educators</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -4350,23 +4374,23 @@
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4393,7 +4417,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Air Quality, Climate Change, Conservation (Wildlife/Habitat), Energy, Environmental Justice, Food Systems/Nutrition, Green Building, Marine &amp; Coastal, Outdoor Learning, STEM, Transportation, Waste, Water</t>
+          <t>Air Quality,  Climate Change,  Conservation (Wildlife/Habitat),  Energy,  Environmental Justice,  Food Systems/Nutrition,  Green Building, Marine &amp; Coastal,  Outdoor Learning,  STEM,  Transportation,  Waste,  Water</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -4481,17 +4505,21 @@
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
+      <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>Not at all</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4518,7 +4546,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Air Quality, Climate Change, Conservation (Wildlife/Habitat), Energy, Environmental Justice, Food Systems/Nutrition, Green Building, Marine &amp; Coastal, Outdoor Learning, STEM, Transportation, Waste, Water</t>
+          <t>Air Quality,  Climate Change,  Conservation (Wildlife/Habitat),  Energy,  Environmental Justice,  Food Systems/Nutrition,  Green Building, Marine &amp; Coastal,  Outdoor Learning,  STEM,  Transportation,  Waste,  Water</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4594,16 +4622,16 @@
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
+      <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>Not at all</t>
+        </is>
+      </c>
       <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -4625,13 +4653,13 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Direct teaching, Field trips, Internships, Residential/overnight programs</t>
+          <t>Direct teaching,  Field trips,  Internships,  Residential/overnight programs</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Conservation (Wildlife/Habitat), Outdoor Learning, Waste, Water, Other</t>
+          <t>Conservation (Wildlife/Habitat),  Outdoor Learning,  Waste,  Water,  Other</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4665,7 +4693,7 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth</t>
+          <t>2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -4735,29 +4763,33 @@
       </c>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Tuition based. 3-week ($7000),  4-week ($9000),  7-week $11, 300) residential sessions available. We have a total of 165 campers in camp at a time. The 3/4 week sessions are concurrent with the 7 week session. Discount for sibling. Boys only.</t>
+        </is>
+      </c>
       <c r="AN32" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Tuition based. 3-week ($7000),  4-week ($9000),  7-week $11, 300) residential sessions available. We have a total of 165 campers in camp at a time. The 3/4 week sessions are concurrent with the 7 week session. Discount for sibling. Boys only.</t>
-        </is>
-      </c>
+      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr"/>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4778,13 +4810,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Direct teaching, Field trips, Residential/overnight programs</t>
+          <t>Direct teaching,  Field trips,  Residential/overnight programs</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Outdoor Learning, STEM, Water, Other</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Outdoor Learning,  STEM,  Water,  Other</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4818,7 +4850,7 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth</t>
+          <t>3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -4884,29 +4916,33 @@
       </c>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Program is included as part of the camp's regular tuition. There is no additional charge.</t>
+        </is>
+      </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Program is included as part of the camp's regular tuition. There is no additional charge.</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr"/>
+          <t>This program is completely conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4927,13 +4963,13 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Curriculum &amp; instructional materials, Direct teaching, Field trips, Professional development/consulting for teachers, Residential/overnight programs</t>
+          <t>Curriculum &amp; instructional materials,  Direct teaching,  Field trips,  Professional development/consulting for teachers,  Residential/overnight programs</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Conservation (Wildlife/Habitat), Outdoor Learning, STEM, Other</t>
+          <t>Conservation (Wildlife/Habitat),  Outdoor Learning,  STEM,  Other</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -4971,7 +5007,7 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators</t>
+          <t>Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -5033,25 +5069,29 @@
       </c>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
         <is>
           <t>All-inclusive (lodging and food,  all course materials,  transportation during clinic) tuition is $385. Group size limited to 12. Must be 18 or older to participate</t>
         </is>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5079,7 +5119,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Conservation (Wildlife/Habitat), Food Systems/Nutrition, Outdoor Learning</t>
+          <t>Conservation (Wildlife/Habitat),  Food Systems/Nutrition,  Outdoor Learning</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -5167,21 +5207,25 @@
       </c>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5202,13 +5246,13 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Classroom volunteers/presenters, Direct teaching, Professional development/consulting for administrators, Professional development/consulting for teachers, Supporting networks (online/in-person), Events/Symposiums, Data/Research</t>
+          <t>Classroom volunteers/presenters,  Direct teaching,  Professional development/consulting for administrators,  Professional development/consulting for teachers,  Supporting networks (online/in-person),  Events/Symposiums,  Data/Research</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Climate Change, Energy, Environmental Justice, Outdoor Learning, STEM</t>
+          <t>Climate Change,  Energy,  Environmental Justice,  Outdoor Learning,  STEM</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -5220,13 +5264,13 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Next Generation Science Standards (NGSS), Common Core English Language Arts, Common Core Math, National Association for the Education of Young Children (NAEYC), State Standards (Write in Other), Social Studies NCSS, Waldorf / Montessori</t>
+          <t>Next Generation Science Standards (NGSS),  Common Core English Language Arts,  Common Core Math, National Association for the Education of Young Children (NAEYC),   State Standards (Write in Other),  Social Studies NCSS,  Waldorf / Montessori</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>After school, Evenings, Summer, Weekends</t>
+          <t>After school, Evenings, Summer,   Weekends</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -5238,7 +5282,7 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Teachers/Administrators, Informal Educators</t>
+          <t>Teachers/Administrators,  Informal Educators</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -5304,12 +5348,12 @@
       </c>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
@@ -5319,10 +5363,14 @@
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr"/>
+          <t>Less than 50%</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5343,25 +5391,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Classroom volunteers/presenters, Direct teaching, Materials &amp; supplies, Professional development/consulting for administrators, Professional development/consulting for teachers, Supporting networks (online/in-person), Events/Symposiums</t>
+          <t>Classroom volunteers/presenters,  Direct teaching,  IMaterials &amp; supplies,  Professional development/consulting for administrators,  Professional development/consulting for teachers,  Supporting networks (online/in-person),  Events/Symposiums</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Climate Change, Energy, Outdoor Learning, STEM</t>
+          <t>Climate Change,  Energy,  Outdoor Learning,  STEM</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>On K-12 school campus, Other Location, Virtual</t>
+          <t>On K-12 school campus,  Other Location,  Virtual</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Next Generation Science Standards (NGSS), Common Core English Language Arts, Common Core Math, Head Start, National Association for the Education of Young Children (NAEYC), National Career &amp; Technical Education Standards, State Standards (Write in Other), Social Studies NCSS, Waldorf / Montessori</t>
+          <t>Next Generation Science Standards (NGSS),  Common Core English Language Arts,  Common Core Math,  Head Start,  National Association for the Education of Young Children (NAEYC),  National Career &amp; Technical Education Standards,  State Standards (Write in Other),  Social Studies NCSS,  Waldorf / Montessori</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
@@ -5379,7 +5427,7 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth, Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators, General Public/Family, Adults</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth,  Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators,  General Public/Family,  Adults</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -5445,25 +5493,29 @@
       </c>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr"/>
+          <t>Less than 50%</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5484,31 +5536,31 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Curriculum &amp; instructional materials, Supporting networks (online/in-person), Events/Symposiums</t>
+          <t>Curriculum &amp; instructional materials,  Supporting networks (online/in-person),  Events/Symposiums</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Green Building, Outdoor Learning, STEM</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Green Building, Outdoor Learning,  STEM</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>On K-12 school campus, Other Location, Virtual</t>
+          <t>On K-12 school campus,  Other Location,  Virtual</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Next Generation Science Standards (NGSS), Common Core English Language Arts, Common Core Math, Head Start, National Association for the Education of Young Children (NAEYC), State Standards (Write in Other), Social Studies NCSS</t>
+          <t>Next Generation Science Standards (NGSS),  Common Core English Language Arts,  Common Core Math,  Head Start,  National Association for the Education of Young Children (NAEYC),  State Standards (Write in Other),  Social Studies NCSS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>After school, Evenings, Summer, Weekends</t>
+          <t>After school, Evenings, Summer,   Weekends</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -5520,7 +5572,7 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators, General Public/Family, Senior Citizens, Adults</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators,  General Public/Family,  Senior Citizens,   Adults</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -5578,21 +5630,25 @@
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5613,13 +5669,13 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Direct teaching, Internships</t>
+          <t>Direct teaching,  Internships</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Food Systems/Nutrition, Outdoor Learning, STEM, Other</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Food Systems/Nutrition,  Outdoor Learning,  STEM,  Other</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5649,7 +5705,7 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth</t>
+          <t>Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -5723,12 +5779,12 @@
       </c>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
@@ -5738,10 +5794,14 @@
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ39" t="inlineStr"/>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5763,19 +5823,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Direct teaching, Field trips</t>
+          <t>Direct teaching,  Field trips</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Food Systems/Nutrition, Outdoor Learning</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Food Systems/Nutrition,  Outdoor Learning</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>On K-12 school campus, Other Location</t>
+          <t>On K-12 school campus,  Other Location</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -5799,7 +5859,7 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth, Pre-Service Educators/College Students, Informal Educators, Senior Citizens, Adults</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth,  Pre-Service Educators/College Students,  Informal Educators,  Senior Citizens,   Adults</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -5873,25 +5933,29 @@
       </c>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr"/>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>Spring,  Fall,    Winter</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5912,13 +5976,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Curriculum &amp; instructional materials, Direct teaching, Field trips, Professional development/consulting for administrators, Professional development/consulting for teachers, Supporting networks (online/in-person)</t>
+          <t>Curriculum &amp; instructional materials,  Direct teaching,  Field trips,  Professional development/consulting for administrators,  Professional development/consulting for teachers,  Supporting networks (online/in-person)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Food Systems/Nutrition, Outdoor Learning</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Food Systems/Nutrition,  Outdoor Learning</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5948,7 +6012,7 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth, Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth,  Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -6022,25 +6086,29 @@
       </c>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="AQ41" t="inlineStr"/>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>Spring,  Fall</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6056,18 +6124,18 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A five-day retreat style professional development training in for educators of any grade or subject so that they can integrate climate learning and action projects into their curriculum or programming. The foci are hands-on,  project-based and student-driven learning,  and empowering energy and climate changemakers through play,  hope,  and wonder. The theme changes each year,  but green energy,  climate,  and taking action will always be highlighted. Graduate credit available.</t>
+          <t>A five-day retreat style professional development training in for educators of any grade or subject so that they can integrate climate learning and action projects into their curriculum or programming. The foci are hands-on,  project-based and student-driven learning,  and empowering energy and climate changemakers through play,  hope,  and wonder. The theme changes each year,  but green Energy,   climate,  and taking action will always be highlighted. Graduate credit available.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Curriculum &amp; instructional materials, Materials &amp; supplies, Professional development/consulting for administrators, Professional development/consulting for teachers, Residential/overnight programs, Supporting networks (online/in-person)</t>
+          <t>Curriculum &amp; instructional materials,  IMaterials &amp; supplies,  Professional development/consulting for administrators,  Professional development/consulting for teachers,  Residential/overnight programs, Supporting networks (online/in-person)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Air Quality, Climate Change, Conservation (Wildlife/Habitat), Energy, Environmental Justice, Food Systems/Nutrition, Green Building, Outdoor Learning, STEM, Transportation, Waste, Water, Workforce Development</t>
+          <t>Air Quality,  Climate Change,  Conservation (Wildlife/Habitat),  Energy,  Environmental Justice,  Food Systems/Nutrition,  Green Building, Outdoor Learning,  STEM,  Transportation,  Waste,  Water,  Workforce Development</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -6079,7 +6147,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Next Generation Science Standards (NGSS), Common Core English Language Arts, Common Core Math, Social Studies NCSS</t>
+          <t>Next Generation Science Standards (NGSS),  Common Core English Language Arts,  Common Core Math,  Social Studies NCSS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -6097,7 +6165,7 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Pre-Service Educators/College Students, Teachers/Administrators, Informal Educators</t>
+          <t>Pre-Service Educators/College Students,  Teachers/Administrators,  Informal Educators</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -6171,29 +6239,33 @@
       </c>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>New Hampshire Environmental Educators</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>The course fee is around $600 and room and board is an additional $500 for a five-day course. Scholarships are available to VT and NH teachers and we are working to find funding to reduce the cost.</t>
+        </is>
+      </c>
       <c r="AN42" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>The course fee is around $600 and room and board is an additional $500 for a five-day course. Scholarships are available to VT and NH teachers and we are working to find funding to reduce the cost.</t>
-        </is>
-      </c>
+      <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ42" t="inlineStr"/>
+          <t>Less than 50%</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6214,19 +6286,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Classroom volunteers/presenters, Curriculum &amp; instructional materials, Direct teaching, Field trips, Grant funding, Materials &amp; supplies, Professional development/consulting for administrators, Professional development/consulting for teachers, Supporting networks (online/in-person), Events/Symposiums, Data/Research</t>
+          <t>Classroom volunteers/presenters,  Curriculum &amp; instructional materials,  Direct teaching,  Field trips,  Grant funding,  IMaterials &amp; supplies,  Professional development/consulting for administrators,  Professional development/consulting for teachers,  Supporting networks (online/in-person),  Events/Symposiums,  Data/Research</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Climate Change, Conservation (Wildlife/Habitat), Food Systems/Nutrition, Green Building, Outdoor Learning, STEM, Water, Workforce Development</t>
+          <t>Climate Change,  Conservation (Wildlife/Habitat),  Food Systems/Nutrition,  Green Building, Outdoor Learning,  STEM,  Water,  Workforce Development</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Other Location, Virtual</t>
+          <t>Other Location,  Virtual</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -6250,7 +6322,7 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>Pre-K/Early Childhood, Kindergarden, 1st Grade Students / Youth, 2nd Grade Students / Youth, 3rd Grade Students / Youth, 4th Grade Students / Youth, 5th Grade Students / Youth, 6th Grade Students / Youth, 7th Grade Students / Youth, 8th Grade Students / Youth, 9th Grade Students / Youth, 10th Grade Students / Youth, 11th Grade Students / Youth, 12th Grade Students / Youth, Teachers/Administrators, Informal Educators, General Public/Family, Senior Citizens, Adults</t>
+          <t>Pre-K/Early Childhood,  Kindergarden,  1st Grade Students / Youth,  2nd Grade Students / Youth,  3rd Grade Students / Youth,  4th Grade Students / Youth,  5th Grade Students / Youth,  6th Grade Students / Youth,  7th Grade Students / Youth,  8th Grade Students / Youth,  9th Grade Students / Youth, 10th Grade Students / Youth,  11th Grade Students / Youth,  12th Grade Students / Youth,  Teachers/Administrators,  Informal Educators,  General Public/Family,  Senior Citizens,   Adults</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -6322,19 +6394,15 @@
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>New Hampshire Environmental Educators</t>
+          <t>Belknap County,  Carroll County,  Cheshire County,  Coos County,  Grafton County,  Merrimack County,  Rockingham County,  Strafford County,  Sullivan County</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>Belknap County, Carroll County, Cheshire County, Coos County, Grafton County, Merrimack County, Rockingham County, Strafford County, Sullivan County</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
           <t>No</t>
@@ -6343,10 +6411,14 @@
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AQ43" t="inlineStr"/>
+          <t>Majority of program conducted outdoors</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>Spring,  Summer,   Fall,    Winter</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
